--- a/2020 Covid 19 TP Survey ALL Records 58 080620.xlsx
+++ b/2020 Covid 19 TP Survey ALL Records 58 080620.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Desktop\Survey Evidence Review Jan 22\TP Support Survey March 20\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65F5C7B0-38E2-49B6-9375-4D0A3E292029}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEB6F4E5-A202-42C7-8723-3C4AB88469B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
@@ -21,46 +21,42 @@
     <sheet name="Sheet7" sheetId="7" r:id="rId6"/>
     <sheet name="Sheet10" sheetId="10" r:id="rId7"/>
     <sheet name="Sheet9" sheetId="9" r:id="rId8"/>
-    <sheet name="Sheet11" sheetId="11" r:id="rId9"/>
+    <sheet name="Sheet4" sheetId="13" r:id="rId9"/>
+    <sheet name="Sheet11" sheetId="11" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="Slicer_Answer_Choice">#N/A</definedName>
     <definedName name="Slicer_Answer_Choice1">#N/A</definedName>
+    <definedName name="Slicer_Answer_Choice2">#N/A</definedName>
     <definedName name="Slicer_Contact_Name">#N/A</definedName>
     <definedName name="Slicer_UserID">#N/A</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="5" r:id="rId10"/>
-    <pivotCache cacheId="16" r:id="rId11"/>
-    <pivotCache cacheId="19" r:id="rId12"/>
+    <pivotCache cacheId="0" r:id="rId11"/>
+    <pivotCache cacheId="1" r:id="rId12"/>
+    <pivotCache cacheId="2" r:id="rId13"/>
+    <pivotCache cacheId="7" r:id="rId14"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
       <x14:slicerCaches>
-        <x14:slicerCache r:id="rId13"/>
-        <x14:slicerCache r:id="rId14"/>
         <x14:slicerCache r:id="rId15"/>
         <x14:slicerCache r:id="rId16"/>
+        <x14:slicerCache r:id="rId17"/>
+        <x14:slicerCache r:id="rId18"/>
+        <x14:slicerCache r:id="rId19"/>
       </x14:slicerCaches>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2493" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2504" uniqueCount="431">
   <si>
     <t>UserID</t>
   </si>
@@ -1372,6 +1368,9 @@
   </si>
   <si>
     <t>Preparation for assessment webinars that students can log into</t>
+  </si>
+  <si>
+    <t>ResponseTotal</t>
   </si>
 </sst>
 </file>
@@ -2569,8 +2568,7 @@
           <a:sp3d/>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="6"/>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -3367,6 +3365,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-E8F5-4457-8CCF-F7CE9FDE22DD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -3836,8 +3839,7 @@
           <a:sp3d/>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="6"/>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -4817,6 +4819,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-F0E3-4B42-B463-5A88BD9FAC74}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
@@ -5109,6 +5116,826 @@
       <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[2020 Covid 19 TP Survey ALL Records 58 080620.xlsx]Sheet4!PivotTable2</c:name>
+    <c:fmtId val="5"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100"/>
+              <a:t>We</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" baseline="0"/>
+              <a:t> are considering ways to alter the assessment approach should exams not be viable in the foreseeable future.Please indicate which would be most suitable for your organisation(tick all that apply)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="20000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:sp3d/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="6"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:pattFill prst="pct75">
+              <a:fgClr>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:sysClr>
+              </a:fgClr>
+              <a:bgClr>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="40000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="7030A0"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="20000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:sp3d/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="20000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:sp3d/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="20000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:sp3d/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="20000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:sp3d/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent4">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="20000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:sp3d/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="20000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:sp3d/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="20000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:sp3d/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="8"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="20000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:sp3d/>
+        </c:spPr>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:view3D>
+      <c:rotX val="50"/>
+      <c:rotY val="0"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="0"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:pie3DChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-B964-4CF1-A250-DC28D1D594BE}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000008-B964-4CF1-A250-DC28D1D594BE}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-B964-4CF1-A250-DC28D1D594BE}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000006-B964-4CF1-A250-DC28D1D594BE}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-B964-4CF1-A250-DC28D1D594BE}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-B964-4CF1-A250-DC28D1D594BE}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-B964-4CF1-A250-DC28D1D594BE}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:pattFill prst="pct75">
+                <a:fgClr>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:sysClr>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet4!$A$5:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Preparation for assessment webinars that students can log into</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Project assignment covering learning outcomes for the whole course (Intro Cert to Adv Diploma)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Project assignment module (Dip and Adv Dip) is brought forward to allow for home study</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Single written assignment at the end of each module</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>We plan to wait and delay examination assessment for our students until later in the year</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>We would ask for submission of documents electronically by email</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>We would still require hard copy submissions</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$B$5:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B964-4CF1-A250-DC28D1D594BE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+      </c:pie3DChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="39000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="39000">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="25000"/>
+          <a:lumOff val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -5228,7 +6055,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="C00000"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -5242,114 +6069,19 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-932F-432A-9ADF-E8B29B36AC48}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="20000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:sp3d/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="20000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:sp3d/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="20000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:sp3d/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="20000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:sp3d/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="5"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="20000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:sp3d/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="6"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="50000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:ln>
@@ -5364,14 +6096,69 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-932F-432A-9ADF-E8B29B36AC48}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
-            <c:idx val="7"/>
+            <c:idx val="2"/>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-932F-432A-9ADF-E8B29B36AC48}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-932F-432A-9ADF-E8B29B36AC48}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="75000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:ln>
@@ -5386,14 +6173,19 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-932F-432A-9ADF-E8B29B36AC48}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
-            <c:idx val="8"/>
+            <c:idx val="5"/>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="50000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:ln>
@@ -5408,6 +6200,88 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-932F-432A-9ADF-E8B29B36AC48}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-932F-432A-9ADF-E8B29B36AC48}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-932F-432A-9ADF-E8B29B36AC48}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000011-932F-432A-9ADF-E8B29B36AC48}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -5873,6 +6747,46 @@
 </file>
 
 <file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -9422,6 +10336,607 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="264">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="pct75">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="pct75">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -9437,8 +10952,8 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="2" name="UserID">
@@ -9461,7 +10976,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -9520,8 +11035,8 @@
       <xdr:row>12</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="2" name="Contact Name">
@@ -9544,7 +11059,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -9680,8 +11195,8 @@
       <xdr:row>16</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="3" name="Answer Choice">
@@ -9704,7 +11219,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -9840,8 +11355,8 @@
       <xdr:row>19</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="3" name="Answer Choice 1">
@@ -9864,7 +11379,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -9954,15 +11469,134 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>4581526</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>76201</xdr:rowOff>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EDCE81B-0852-496C-B37A-43E37024436F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>333376</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="3" name="Answer Choice 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7BA55FA-77D8-4479-B936-FE6E5AEE2A48}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Answer Choice 2"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8191500" y="552450"/>
+              <a:ext cx="8124826" cy="2524125"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-ZA" sz="1100"/>
+                <a:t>This shape represents a slicer. Slicers are supported in Excel 2010 or later.
+If the shape was modified in an earlier version of Excel, or if the workbook was saved in Excel 2003 or earlier, the slicer cannot be used.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1495426</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>10906126</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:colOff>7820026</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10354,6 +11988,37 @@
 </pivotCacheDefinition>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Internmatch" refreshedDate="44609.497577314818" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="9" xr:uid="{B351F1AF-D2E8-486E-B781-9880672F3818}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A4:B13" sheet="Sheet11"/>
+  </cacheSource>
+  <cacheFields count="2">
+    <cacheField name="Answer Choice" numFmtId="0">
+      <sharedItems count="9">
+        <s v="We plan to wait and delay examination assessment for our students until later in the year"/>
+        <s v="On line modular assessments instead of written examinations"/>
+        <s v="Modular workbooks including mini essay questions and written assignment at the end"/>
+        <s v="Single written assignment at the end of each module"/>
+        <s v="Project assignment module (Dip and Adv Dip) is brought forward to allow for home study"/>
+        <s v="Project assignment covering learning outcomes for the whole course (Intro Cert to Adv Diploma)"/>
+        <s v="We would ask for submission of documents electronically by email"/>
+        <s v="We would still require hard copy submissions"/>
+        <s v="Preparation for assessment webinars that students can log into"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Response Total" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="15" maxValue="35"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition pivotCacheId="1415833035"/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="58">
   <r>
@@ -12799,8 +14464,49 @@
 </pivotCacheRecords>
 </file>
 
+<file path=xl/pivotCache/pivotCacheRecords4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="9">
+  <r>
+    <x v="0"/>
+    <n v="24"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="35"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="25"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="16"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="18"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="29"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="24"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{934832E1-4B9A-41DB-9E32-58A1A17AFE85}" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Contact Names">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{934832E1-4B9A-41DB-9E32-58A1A17AFE85}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Contact Names">
   <location ref="A4:A61" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="39">
     <pivotField showAll="0">
@@ -13158,7 +14864,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C5842E42-262F-45E5-A35D-D87B0B38437A}" name="PivotTable2" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Training Providers">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C5842E42-262F-45E5-A35D-D87B0B38437A}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Training Providers">
   <location ref="A4:A61" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="39">
     <pivotField showAll="0"/>
@@ -13515,7 +15221,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{742E22B7-B9F7-4C6C-BABE-43709AB21BDD}" name="PivotTable7" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3" rowHeaderCaption="What are your immediate/short term plans?">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{742E22B7-B9F7-4C6C-BABE-43709AB21BDD}" name="PivotTable7" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3" rowHeaderCaption="What are your immediate/short term plans?">
   <location ref="A3:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField axis="axisRow" showAll="0">
@@ -13656,7 +15362,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6F51606B-BF52-43CF-A5BA-9FBD053798E0}" name="PivotTable8" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3" rowHeaderCaption="Answer Choice">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6F51606B-BF52-43CF-A5BA-9FBD053798E0}" name="PivotTable8" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3" rowHeaderCaption="Answer Choice">
   <location ref="A4:B11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField axis="axisRow" showAll="0">
@@ -13788,6 +15494,177 @@
       </pivotArea>
     </chartFormat>
     <chartFormat chart="2" format="7">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6E16C5ED-C375-4A16-8641-BC4D42877407}" name="PivotTable2" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6" rowHeaderCaption="Answer Choice">
+  <location ref="A4:B11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="2">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="10">
+        <item h="1" x="2"/>
+        <item h="1" x="1"/>
+        <item x="8"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="7">
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="ResponseTotal" fld="1" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="9">
+    <chartFormat chart="5" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="7">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="8">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -13996,6 +15873,29 @@
 </slicerCacheDefinition>
 </file>
 
+<file path=xl/slicerCaches/slicerCache5.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_Answer_Choice2" xr10:uid="{526CE46C-DE87-4EA6-818B-81060BA283D9}" sourceName="Answer Choice">
+  <pivotTables>
+    <pivotTable tabId="13" name="PivotTable2"/>
+  </pivotTables>
+  <data>
+    <tabular pivotCacheId="1415833035">
+      <items count="9">
+        <i x="2"/>
+        <i x="1"/>
+        <i x="8" s="1"/>
+        <i x="5" s="1"/>
+        <i x="4" s="1"/>
+        <i x="3" s="1"/>
+        <i x="0" s="1"/>
+        <i x="6" s="1"/>
+        <i x="7" s="1"/>
+      </items>
+    </tabular>
+  </data>
+</slicerCacheDefinition>
+</file>
+
 <file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
   <slicer name="UserID" xr10:uid="{B6FB8321-4361-4C55-AA30-05330E689CFF}" cache="Slicer_UserID" caption="UserID" rowHeight="241300"/>
@@ -14017,6 +15917,12 @@
 <file path=xl/slicers/slicer4.xml><?xml version="1.0" encoding="utf-8"?>
 <slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
   <slicer name="Answer Choice 1" xr10:uid="{35EDF9FC-6434-429A-B32A-6D6553DCF2FE}" cache="Slicer_Answer_Choice1" caption="Answer Choice" rowHeight="241300"/>
+</slicers>
+</file>
+
+<file path=xl/slicers/slicer5.xml><?xml version="1.0" encoding="utf-8"?>
+<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
+  <slicer name="Answer Choice 2" xr10:uid="{805D51C7-62B8-448C-B522-71ACE044DBB0}" cache="Slicer_Answer_Choice2" caption="Answer Choice" rowHeight="241300"/>
 </slicers>
 </file>
 
@@ -14367,7 +16273,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31EE4AB7-E308-4AA6-8590-A2DDF679681D}">
   <dimension ref="A1:A61"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -14684,6 +16590,116 @@
       </x14:slicerList>
     </ext>
   </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE27E7B7-F2F7-4A6F-85D1-F08F9AB87252}">
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="178.28515625" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="21">
+      <c r="A1" s="3" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="7" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>421</v>
+      </c>
+      <c r="B5" s="12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>422</v>
+      </c>
+      <c r="B6" s="12">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>423</v>
+      </c>
+      <c r="B7" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>424</v>
+      </c>
+      <c r="B8" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>425</v>
+      </c>
+      <c r="B9" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>426</v>
+      </c>
+      <c r="B10" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>427</v>
+      </c>
+      <c r="B11" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>428</v>
+      </c>
+      <c r="B12" s="12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>429</v>
+      </c>
+      <c r="B13" s="12">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -22523,7 +24539,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:B11"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -22712,17 +24728,17 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE27E7B7-F2F7-4A6F-85D1-F08F9AB87252}">
-  <dimension ref="A1:B13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C631F477-1B09-4C23-BE65-C5E7FB755F5A}">
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="177.5703125" customWidth="1"/>
-    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="1" max="1" width="88.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="21">
@@ -22731,92 +24747,83 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="1" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="4" t="s">
         <v>389</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>401</v>
+      <c r="B4" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" t="s">
+      <c r="A5" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="B5">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="B6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="B7">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="B8">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="5" t="s">
         <v>421</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B9">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>422</v>
-      </c>
-      <c r="B6" s="12">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>423</v>
-      </c>
-      <c r="B7" s="12">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>424</v>
-      </c>
-      <c r="B8" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>425</v>
-      </c>
-      <c r="B9" s="12">
-        <v>18</v>
-      </c>
-    </row>
     <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>426</v>
-      </c>
-      <c r="B10" s="12">
-        <v>20</v>
+      <c r="A10" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="B10">
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>427</v>
-      </c>
-      <c r="B11" s="12">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
+      <c r="A11" s="5" t="s">
         <v>428</v>
       </c>
-      <c r="B12" s="12">
+      <c r="B11">
         <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>429</v>
-      </c>
-      <c r="B13" s="12">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{A8765BA9-456A-4dab-B4F3-ACF838C121DE}">
+      <x14:slicerList>
+        <x14:slicer r:id="rId3"/>
+      </x14:slicerList>
+    </ext>
+  </extLst>
 </worksheet>
 </file>